--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value305.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value305.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.200529683893667</v>
+        <v>0.7603300213813782</v>
       </c>
       <c r="B1">
-        <v>1.224388222456375</v>
+        <v>1.164723992347717</v>
       </c>
       <c r="C1">
-        <v>1.329287219888181</v>
+        <v>2.272536754608154</v>
       </c>
       <c r="D1">
-        <v>1.914797033460736</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4.020115965591687</v>
+        <v>1.81972599029541</v>
       </c>
     </row>
   </sheetData>
